--- a/biology/Médecine/Nanisme_létal_type_Greenberg/Nanisme_létal_type_Greenberg.xlsx
+++ b/biology/Médecine/Nanisme_létal_type_Greenberg/Nanisme_létal_type_Greenberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nanisme_l%C3%A9tal_type_Greenberg</t>
+          <t>Nanisme_létal_type_Greenberg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nanisme létal type Greenberg est un nanisme rare en rapport avec une anomalie de la synthèse du cholestérol. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nanisme_l%C3%A9tal_type_Greenberg</t>
+          <t>Nanisme_létal_type_Greenberg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Autres désignations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dysplasie HEM
 Dysplasie de Greenberg</t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nanisme_l%C3%A9tal_type_Greenberg</t>
+          <t>Nanisme_létal_type_Greenberg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mutation du gène LBR situé sur le locus q42.1 du 1 codant le récepteur de la lamine B qui est un stérol delta(14) réductase. Ce défaut entraine une diminution de l'activité de la 3-beta-hydroxysterol delta(14)-réductase.</t>
         </is>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nanisme_l%C3%A9tal_type_Greenberg</t>
+          <t>Nanisme_létal_type_Greenberg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +588,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des manifestations commencent in utero par un hydramnios avec hydrops fœtal. Souvent le fœtus décède in utero.
 L'échographie confirme une réduction importante de la taille des différents segments de membre
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nanisme_l%C3%A9tal_type_Greenberg</t>
+          <t>Nanisme_létal_type_Greenberg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Transmission</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Transmission autosomique récessive
 </t>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nanisme_l%C3%A9tal_type_Greenberg</t>
+          <t>Nanisme_létal_type_Greenberg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,10 +659,12 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Page spécifique sur Orphanet
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:215140 [1]
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:215140 
  Portail de la médecine                     </t>
         </is>
       </c>
